--- a/Aviva_Shared_Resource_Tracker.xlsx
+++ b/Aviva_Shared_Resource_Tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="132" windowWidth="22980" windowHeight="9468"/>
   </bookViews>
   <sheets>
     <sheet name="Testing" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="59">
   <si>
     <t>S.No</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Lead</t>
   </si>
   <si>
-    <t>Test Lead</t>
-  </si>
-  <si>
     <t>Web</t>
   </si>
   <si>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>Assessement Attached</t>
+  </si>
+  <si>
+    <t>FTS</t>
   </si>
 </sst>
 </file>
@@ -974,7 +974,7 @@
   <dimension ref="B1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -997,7 +997,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
@@ -1007,7 +1007,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M2" s="30"/>
     </row>
@@ -1034,17 +1034,17 @@
         <v>5</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3" s="19"/>
       <c r="L3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
@@ -1055,20 +1055,22 @@
         <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="6">
         <v>43007</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="I4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -1086,17 +1088,19 @@
         <v>22</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="6">
         <v>43007</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="I5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -1114,19 +1118,19 @@
         <v>22</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="6">
         <v>43007</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -1141,22 +1145,22 @@
         <v>7</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="6">
         <v>43007</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -1170,21 +1174,23 @@
       <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E8" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="6">
         <v>43007</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -1198,21 +1204,23 @@
       <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E9" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="6">
         <v>43007</v>
       </c>
       <c r="H9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -1226,21 +1234,23 @@
       <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E10" s="5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="6">
         <v>43007</v>
       </c>
       <c r="H10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -1254,21 +1264,23 @@
       <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="6">
         <v>43007</v>
       </c>
       <c r="H11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -1282,21 +1294,23 @@
       <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" s="6">
         <v>43007</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -1310,21 +1324,23 @@
       <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="6">
         <v>43007</v>
       </c>
       <c r="H13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -1338,21 +1354,23 @@
       <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="6">
         <v>43007</v>
       </c>
       <c r="H14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -1366,21 +1384,23 @@
       <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E15" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15" s="6">
         <v>43007</v>
       </c>
       <c r="H15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -1394,21 +1414,23 @@
       <c r="C16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" s="6">
         <v>43007</v>
       </c>
       <c r="H16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -1423,22 +1445,22 @@
         <v>18</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G17" s="6">
         <v>43007</v>
       </c>
       <c r="H17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -1501,7 +1523,7 @@
   <dimension ref="B2:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1525,7 +1547,7 @@
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
@@ -1535,7 +1557,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M3" s="24"/>
     </row>
@@ -1562,17 +1584,17 @@
         <v>5</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4" s="27"/>
       <c r="L4" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="29" t="s">
         <v>32</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
@@ -1580,25 +1602,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="6">
         <v>43004</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -1610,25 +1632,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="6">
         <v>43004</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -1640,25 +1662,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="6">
         <v>43004</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -1670,25 +1692,25 @@
         <v>4</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="6">
         <v>43004</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -1746,7 +1768,7 @@
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
@@ -1756,7 +1778,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M3" s="24"/>
     </row>
@@ -1783,17 +1805,17 @@
         <v>5</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4" s="27"/>
       <c r="L4" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="29" t="s">
         <v>32</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
@@ -1801,25 +1823,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="6">
         <v>43004</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -1831,25 +1853,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="16">
         <v>43004</v>
       </c>
       <c r="H6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>39</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
@@ -1870,7 +1892,7 @@
   <dimension ref="B2:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1880,7 +1902,7 @@
     <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
     <col min="10" max="10" width="12.77734375" customWidth="1"/>
     <col min="11" max="11" width="1.21875" customWidth="1"/>
     <col min="12" max="12" width="22.5546875" customWidth="1"/>
@@ -1892,7 +1914,7 @@
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="24"/>
@@ -1902,7 +1924,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M3" s="10"/>
     </row>
@@ -1929,17 +1951,17 @@
         <v>5</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4" s="27"/>
       <c r="L4" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="29" t="s">
         <v>32</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
@@ -1947,25 +1969,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="38">
         <v>43006</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -1977,25 +1999,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="38">
         <v>43006</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -2007,25 +2029,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="38">
         <v>43006</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -2037,25 +2059,25 @@
         <v>4</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="38">
         <v>43006</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -2067,25 +2089,25 @@
         <v>5</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="38">
         <v>43006</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -2097,25 +2119,25 @@
         <v>6</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="38">
         <v>43006</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -2127,25 +2149,25 @@
         <v>7</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="38">
         <v>43007</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -2157,25 +2179,25 @@
         <v>8</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="G12" s="38">
         <v>43006</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -2187,25 +2209,25 @@
         <v>9</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="G13" s="38">
         <v>43006</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -2217,25 +2239,25 @@
         <v>10</v>
       </c>
       <c r="C14" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="E14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>49</v>
       </c>
       <c r="G14" s="39">
         <v>43006</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
@@ -2278,7 +2300,7 @@
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
@@ -2288,7 +2310,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M3" s="30"/>
     </row>
@@ -2315,17 +2337,17 @@
         <v>5</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2356,7 +2378,7 @@
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
@@ -2366,7 +2388,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M3" s="30"/>
     </row>
@@ -2393,17 +2415,17 @@
         <v>5</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
